--- a/設計.xlsx
+++ b/設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\中平　悠希\Desktop\GitHub\2025Summer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47230AAF-794F-487E-8D8A-24BC2A36B195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E68B365-7390-4BD2-8CA6-BE54DD41FAE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="全体" sheetId="7" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t>Application</t>
     <phoneticPr fontId="1"/>
@@ -61,6 +61,130 @@
   </si>
   <si>
     <t>Scene,Input,EffectManager</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←シングルトン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SceneController</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Scene基底クラス</t>
+    <rPh sb="5" eb="7">
+      <t>キテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↑</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ChangeScene</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Physics</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ActorController</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重力＆当たり判定、押し戻し</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウリョク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SoundManager</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sound</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インスタンス化＆ハンドルを渡す</t>
+    <rPh sb="6" eb="7">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ワタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なり終わったら消える</t>
+    <rPh sb="2" eb="3">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>loopなら消えない</t>
+    <rPh sb="6" eb="7">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Soundと大体同じ</t>
+    <rPh sb="6" eb="8">
+      <t>ダイタイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Actor</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>死んだかどうかControllerが検知して消す</t>
+    <rPh sb="0" eb="1">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ケンチ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ButtonSystem</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Button</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カーソル</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -104,8 +228,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -386,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE853FF2-F83E-4923-AC3F-11903EF1F27D}">
-  <dimension ref="B3:B7"/>
+  <dimension ref="B3:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -397,29 +524,37 @@
     <col min="2" max="2" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:2">
+    <row r="3" spans="2:5">
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" spans="2:5">
       <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" spans="2:5">
       <c r="B5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="2:5">
       <c r="B6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="2:5">
       <c r="B7" t="s">
         <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -431,12 +566,51 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -444,37 +618,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91997F15-E6F4-4ECC-8977-F727D4F244BB}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81444D2D-6769-4A52-ABBF-B2A62924F0B4}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B572D23-5670-479A-AA45-82B03DF481C0}">
-  <dimension ref="B2:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -482,17 +628,27 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>4</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -501,29 +657,153 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9FD50DF-601E-49A6-B218-CE0695A723FF}">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81444D2D-6769-4A52-ABBF-B2A62924F0B4}">
+  <dimension ref="B2:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:3">
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E7B8B15-293B-4A2F-9D8E-61C0043E0E5D}">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B572D23-5670-479A-AA45-82B03DF481C0}">
+  <dimension ref="B2:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:5">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9FD50DF-601E-49A6-B218-CE0695A723FF}">
+  <dimension ref="B2:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E7B8B15-293B-4A2F-9D8E-61C0043E0E5D}">
+  <dimension ref="B2:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="2" spans="2:3">
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/設計.xlsx
+++ b/設計.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\中平　悠希\Desktop\GitHub\2025Summer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E68B365-7390-4BD2-8CA6-BE54DD41FAE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BF6162-691F-4D9C-90CF-46E141260553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="全体" sheetId="7" r:id="rId1"/>
     <sheet name="Scene" sheetId="1" r:id="rId2"/>
     <sheet name="当たり判定" sheetId="3" r:id="rId3"/>
-    <sheet name="Sound" sheetId="4" r:id="rId4"/>
-    <sheet name="Effect" sheetId="5" r:id="rId5"/>
-    <sheet name="UI" sheetId="6" r:id="rId6"/>
-    <sheet name="Actor" sheetId="2" r:id="rId7"/>
+    <sheet name="Camera" sheetId="8" r:id="rId4"/>
+    <sheet name="Sound" sheetId="4" r:id="rId5"/>
+    <sheet name="Effect" sheetId="5" r:id="rId6"/>
+    <sheet name="UI" sheetId="6" r:id="rId7"/>
+    <sheet name="Actor" sheetId="2" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
   <si>
     <t>Application</t>
     <phoneticPr fontId="1"/>
@@ -185,6 +186,146 @@
   </si>
   <si>
     <t>カーソル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Camera</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VirtualCamera</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>位置、注視点</t>
+    <rPh sb="0" eb="2">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウシテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>優先度</t>
+    <rPh sb="0" eb="3">
+      <t>ユウセンド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VirtualCameraのList</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一番優先度の高い、アクティブになっているVirtualCameraのパラメータをCameraに反映</t>
+    <rPh sb="0" eb="2">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ユウセンド</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>反映しているVirtualCameraが変わったら、その時のパラメータから、次のVirtualCameraのパラメータに遷移</t>
+    <rPh sb="0" eb="2">
+      <t>ハンエイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fカーブ実装したくね？</t>
+    <rPh sb="4" eb="6">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lerpのｔ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>別のクラスか名前空間に置いておく</t>
+    <rPh sb="0" eb="1">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>ナマエクウカン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いい感じに t =f(x);みたいな関数をいくつか作る</t>
+    <rPh sb="2" eb="3">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ノイズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VirtualCameraを継承</t>
+    <rPh sb="14" eb="16">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力で注視点を中心に回転するカメラ</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウシテン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>チュウシン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カイテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>など</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロックオンカメラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベントシーンカメラ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -620,8 +761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91997F15-E6F4-4ECC-8977-F727D4F244BB}">
   <dimension ref="B2:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -658,6 +799,111 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CA6929A-1495-43C0-90C2-957E17BE0B65}">
+  <dimension ref="B2:D21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81444D2D-6769-4A52-ABBF-B2A62924F0B4}">
   <dimension ref="B2:C7"/>
   <sheetViews>
@@ -699,7 +945,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B572D23-5670-479A-AA45-82B03DF481C0}">
   <dimension ref="B2:E4"/>
   <sheetViews>
@@ -733,7 +979,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9FD50DF-601E-49A6-B218-CE0695A723FF}">
   <dimension ref="B2:D4"/>
   <sheetViews>
@@ -767,7 +1013,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E7B8B15-293B-4A2F-9D8E-61C0043E0E5D}">
   <dimension ref="B2:C9"/>
   <sheetViews>

--- a/設計.xlsx
+++ b/設計.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\中平　悠希\Desktop\GitHub\2025Summer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BF6162-691F-4D9C-90CF-46E141260553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA14536A-4879-406A-A90F-24154A2ADC26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
   <si>
     <t>Application</t>
     <phoneticPr fontId="1"/>
@@ -326,6 +326,16 @@
   </si>
   <si>
     <t>イベントシーンカメラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→今有効なものだけUpdate</t>
+    <rPh sb="1" eb="2">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ユウコウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -800,10 +810,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CA6929A-1495-43C0-90C2-957E17BE0B65}">
-  <dimension ref="B2:D21"/>
+  <dimension ref="B2:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="K18" sqref="K17:K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -877,22 +887,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:6">
       <c r="B17" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="18" spans="2:2">
+      <c r="F17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
       <c r="B18" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="2:6">
       <c r="B19" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="2:6">
       <c r="B21" t="s">
         <v>40</v>
       </c>
